--- a/scenarios/cough/processes/API.xlsx
+++ b/scenarios/cough/processes/API.xlsx
@@ -142,54 +142,7 @@
     <t xml:space="preserve">Das klingt gut.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IF [time] == few_days THEN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOAD(Explanation), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">JUMP(Safety) ELSE JUMP(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Explanation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
   </si>
   <si>
     <t xml:space="preserve">Ne, ich glaube ich brauche wirklich etwas gegen den Husten</t>
@@ -368,7 +321,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -430,12 +383,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -503,7 +450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -588,7 +535,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -673,10 +620,10 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.85"/>

--- a/scenarios/cough/processes/API.xlsx
+++ b/scenarios/cough/processes/API.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Output</t>
   </si>
   <si>
-    <t xml:space="preserve">husten </t>
+    <t xml:space="preserve">husten</t>
   </si>
   <si>
     <t xml:space="preserve">Schleimiger oder nicht schleimiger Husten</t>
@@ -127,7 +127,33 @@
     <t xml:space="preserve">[Product Gelo-Revoice]</t>
   </si>
   <si>
-    <t xml:space="preserve">GO(PropGelre2)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GO(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">prop_gelre2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SELECT * FROM Products WHERE PZN == '8846067'</t>
@@ -244,7 +270,7 @@
     <t xml:space="preserve">Ich will nur eine kurzfristige Lösung, der Schleim kann ruhig in meiner Lunge bleiben. Ein Hustenstiller bitte!</t>
   </si>
   <si>
-    <t xml:space="preserve">hu_schleimig </t>
+    <t xml:space="preserve">hu_schleimig</t>
   </si>
   <si>
     <t xml:space="preserve">2) Schleimiger Husten</t>
@@ -321,7 +347,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -383,6 +409,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -535,7 +567,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -619,7 +651,7 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/scenarios/cough/processes/API.xlsx
+++ b/scenarios/cough/processes/API.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(hu_schleimg)</t>
   </si>
   <si>
     <t xml:space="preserve">nein</t>
@@ -142,6 +139,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">prop_gelre2</t>
     </r>
@@ -237,7 +235,7 @@
     <t xml:space="preserve">GO(post_cold_exp)</t>
   </si>
   <si>
-    <t xml:space="preserve">psot_cold_exp</t>
+    <t xml:space="preserve">post_cold_exp</t>
   </si>
   <si>
     <t xml:space="preserve">Pop-up Erklärung Post-Erkältungshusten</t>
@@ -297,7 +295,7 @@
     <t xml:space="preserve">Wie wird der Schleim Abtransportiert?</t>
   </si>
   <si>
-    <t xml:space="preserve">GO(mukozil_exp)</t>
+    <t xml:space="preserve">GO(muko_zil_exp)</t>
   </si>
   <si>
     <t xml:space="preserve">Wie entsteht Husten?</t>
@@ -347,7 +345,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -409,12 +407,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -567,7 +559,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,8 +643,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -770,7 +762,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
@@ -788,16 +780,16 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="14"/>
     </row>
@@ -808,10 +800,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,42 +813,42 @@
         <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
@@ -868,10 +860,10 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,10 +873,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,24 +886,24 @@
         <v>11</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="14"/>
     </row>
@@ -922,10 +914,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,10 +927,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,39 +940,39 @@
         <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="8"/>
     </row>
@@ -991,10 +983,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,39 +996,39 @@
         <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="8"/>
     </row>
@@ -1047,10 +1039,10 @@
         <v>11</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,10 +1052,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,24 +1065,24 @@
         <v>11</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="14"/>
     </row>
@@ -1101,10 +1093,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,24 +1106,24 @@
         <v>11</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="8"/>
     </row>
@@ -1142,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,10 +1147,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,10 +1160,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,10 +1173,10 @@
         <v>11</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,61 +1186,61 @@
         <v>11</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" s="9"/>
     </row>

--- a/scenarios/cough/processes/API.xlsx
+++ b/scenarios/cough/processes/API.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -122,6 +122,45 @@
   </si>
   <si>
     <t xml:space="preserve">[Product Gelo-Revoice]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM Products WHERE PZN == '8846067'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to cart</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CART(), GO(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">prop_gelre2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Skit</t>
   </si>
   <si>
     <r>
@@ -152,9 +191,6 @@
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE PZN == '8846067'</t>
   </si>
   <si>
     <t xml:space="preserve">prop_gelre2</t>
@@ -641,10 +677,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,52 +868,52 @@
       <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="E13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="18" t="s">
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
@@ -888,24 +924,22 @@
       <c r="D16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
@@ -914,218 +948,218 @@
         <v>11</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="9" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="E21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="7" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="E25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
@@ -1134,24 +1168,26 @@
         <v>11</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
@@ -1160,10 +1196,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,10 +1209,10 @@
         <v>11</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,63 +1222,89 @@
         <v>11</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>88</v>
-      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scenarios/cough/processes/API.xlsx
+++ b/scenarios/cough/processes/API.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">husten</t>
@@ -439,7 +445,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,6 +460,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -602,24 +612,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,542 +651,548 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="D9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="D15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="189.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="D20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="D24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="D28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="189.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="9"/>
+      <c r="D37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="9"/>
+      <c r="A38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="9"/>
+      <c r="A39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="174.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="9"/>
+      <c r="A40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
